--- a/data/cached_generated_reports/all_time/red_flag_8.xlsx
+++ b/data/cached_generated_reports/all_time/red_flag_8.xlsx
@@ -511,7 +511,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108853400000Z</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102559800000M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102312700000N</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134606000000L</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -819,7 +819,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109412200000F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -891,7 +891,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130213400000Q</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114845400000T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1040,7 +1040,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109726100000A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131539800000E</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109088200000A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105029900000M</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117184100000L</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106244300000A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102511700000R</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100882300000S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131855600000L</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1723,7 +1723,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111476400000L</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106332700000T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105259500000H</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1969,7 +1969,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106273000000L</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102423800000R</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101439400000E</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2215,7 +2215,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100808000000K</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2297,7 +2297,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109144700000S</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101244400000M</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106240500000M</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129861500000K</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2605,7 +2605,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122327600000F</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2677,7 +2677,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102226900000M</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100785000000J</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118442500000A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116416400000T</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3000,7 +3000,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101037400000S</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3077,7 +3077,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103045700000T</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3159,7 +3159,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107676700000W</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3236,7 +3236,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104113800000C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3308,7 +3308,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101636800000C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3390,7 +3390,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135120900000J</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3462,7 +3462,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122207100000T</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3539,7 +3539,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103568500000P</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100334000000X</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113181500000F</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3775,7 +3775,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112426100000G</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3857,7 +3857,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103073100000W</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103406800000F</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102544400000H</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4093,7 +4093,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116255300000S</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3128656200000A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4242,7 +4242,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108503400000A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4319,7 +4319,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103514500000B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4401,7 +4401,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133857600000K</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4473,7 +4473,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115761700000B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4545,7 +4545,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108478300000V</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4622,7 +4622,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3127886800000D</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4694,7 +4694,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133442500000K</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4766,7 +4766,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109405200000X</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4843,7 +4843,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102098100000S</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4915,7 +4915,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114072400000X</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108738700000V</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5064,7 +5064,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104365500000K</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5141,7 +5141,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108949000000J</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5223,7 +5223,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114936900000T</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5305,7 +5305,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106240100000C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104567000000S</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5449,7 +5449,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104247200000F</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5526,7 +5526,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103780300000K</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5603,7 +5603,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134148000000A</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5675,7 +5675,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101042500000V</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5757,7 +5757,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121477000000M</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5829,7 +5829,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114923800000F</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5906,7 +5906,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109174200000T</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129364500000F</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121473300000H</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126905100000J</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6194,7 +6194,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100580400000V</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6271,7 +6271,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130297100000X</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101195600000P</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6425,7 +6425,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101064200000X</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6507,7 +6507,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121703400000M</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6589,7 +6589,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130993300000X</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6661,7 +6661,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115906900000D</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3124466800000F</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6810,7 +6810,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112678200000Z</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6887,7 +6887,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103498400000V</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100960800000N</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134866300000M</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7118,7 +7118,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117186800000M</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110431000000H</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7272,7 +7272,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109636300000T</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106584300000S</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131353000000R</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106417500000G</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7568,11 +7568,6 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>SGI INGENIERIE SA</t>
@@ -7635,11 +7630,6 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Haskoning DHV Nederland B.V.</t>
@@ -7712,11 +7702,6 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Bantu Studio Design and Research</t>
@@ -7791,7 +7776,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121526100000L</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7873,7 +7858,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101599900000S</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7945,7 +7930,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103044000000A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -8017,7 +8002,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101669500000T</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8094,7 +8079,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130793500000D</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8166,7 +8151,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116825700000Q</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8238,7 +8223,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135198900000Q</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8310,7 +8295,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110507400000Z</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8382,7 +8367,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106265200000M</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8459,7 +8444,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101210000000C</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8541,7 +8526,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117682200000G</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8613,7 +8598,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101274900000A</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8695,7 +8680,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122223300000T</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8767,7 +8752,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101996900000R</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8849,7 +8834,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101236000000L</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8931,7 +8916,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>1300658800000D</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -9008,7 +8993,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103340700000X</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9085,7 +9070,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112243400000M</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9162,7 +9147,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101103600000Q</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -9239,7 +9224,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100317800000B</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -9316,7 +9301,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121614800000F</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9388,7 +9373,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101838700000V</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -9465,7 +9450,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134853600000J</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -9537,7 +9522,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3124690200000N</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9609,7 +9594,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118373400000N</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9681,7 +9666,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111187500000S</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9753,7 +9738,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106993400000X</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9830,7 +9815,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104051800000H</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9897,7 +9882,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103332300000W</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9969,7 +9954,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129507400000R</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -10041,7 +10026,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119250800000L</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -10113,7 +10098,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100959800000A</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -10190,7 +10175,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108150500000X</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -10267,7 +10252,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105782400000S</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -10344,7 +10329,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103344400000B</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -10426,7 +10411,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123615800000X</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -10503,7 +10488,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102413600000S</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -10585,7 +10570,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113642300000X</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10657,7 +10642,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115606900000M</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10729,7 +10714,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105896300000B</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10806,7 +10791,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103235600000P</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10883,7 +10868,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131595300000V</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10955,7 +10940,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108050700000J</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -11027,7 +11012,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131721700000P</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -11099,7 +11084,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108010300000Y</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -11176,7 +11161,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106894900000S</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -11253,7 +11238,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108365300000F</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -11325,7 +11310,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105372600000G</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -11402,7 +11387,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123064300000W</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -11474,7 +11459,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106995400000M</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -11551,7 +11536,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104283200000B</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -11628,7 +11613,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112800800000F</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11710,7 +11695,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129249200000Z</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11782,7 +11767,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108426900000Z</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11854,7 +11839,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117787200000A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11931,7 +11916,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105185500000R</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -12003,7 +11988,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134140900000S</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -12075,7 +12060,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3128543000000Y</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -12147,7 +12132,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114421400000D</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -12219,7 +12204,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101458100000J</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -12296,7 +12281,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104242000000A</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -12373,7 +12358,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115915200000R</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -12445,7 +12430,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108983600000R</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -12517,7 +12502,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104581300000L</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -12589,7 +12574,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123068300000B</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -12661,7 +12646,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115809500000L</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12738,7 +12723,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131210200000E</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12810,7 +12795,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121908400000L</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12882,7 +12867,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110389300000X</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12959,7 +12944,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106850900000L</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -13031,7 +13016,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106120700000L</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -13103,7 +13088,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115381200000Z</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -13180,7 +13165,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101336800000L</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -13257,7 +13242,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132838600000A</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -13329,7 +13314,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119626900000S</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -13401,7 +13386,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114424000000R</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -13473,7 +13458,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114673400000M</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -13555,7 +13540,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109397300000Z</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -13627,7 +13612,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102540300000T</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -13699,7 +13684,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110199100000A</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13779,11 +13764,6 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>urbaplan SA</t>
@@ -13841,11 +13821,6 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>GROUPE HUIT</t>
@@ -13908,11 +13883,6 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Pegasys Limited</t>
@@ -13987,7 +13957,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113147000000G</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -14059,7 +14029,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108704200000B</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -14136,7 +14106,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116488600000X</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -14208,7 +14178,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131079500000C</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -14280,7 +14250,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130783800000Y</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -14362,7 +14332,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117513300000X</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -14434,7 +14404,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118344100000A</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -14506,7 +14476,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116417100000A</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -14583,7 +14553,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114427200000G</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -14655,7 +14625,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122997500000A</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -14737,7 +14707,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106827800000L</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -14814,7 +14784,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109863000000A</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -14891,7 +14861,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100906500000T</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -14973,7 +14943,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3127721600000D</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -15045,7 +15015,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106036000000X</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -15127,7 +15097,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134889600000Z</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -15199,7 +15169,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114403000000W</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -15271,7 +15241,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126717700000X</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -15343,7 +15313,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109596400000L</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -15415,7 +15385,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134300500000S</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -15487,7 +15457,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121526500000W</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -15559,7 +15529,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104202300000A</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -15636,7 +15606,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103083600000W</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -15713,7 +15683,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103077300000T</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -15788,11 +15758,6 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Africa Procurement Agency</t>
@@ -15862,7 +15827,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115151600000D</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -15934,7 +15899,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103926500000V</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -16016,7 +15981,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102534400000B</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -16098,7 +16063,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123321700000Y</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -16175,7 +16140,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119847100000E</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -16247,7 +16212,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117449100000P</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -16324,7 +16289,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121911000000E</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -16396,7 +16361,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133856600000C</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -16468,7 +16433,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132035100000Q</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -16540,7 +16505,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135668700000F</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -16612,7 +16577,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122865800000L</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -16684,7 +16649,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119809000000K</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -16756,7 +16721,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118994000000G</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -16828,7 +16793,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3125198800000D</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16900,7 +16865,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106040000000H</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16977,7 +16942,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135236600000Q</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17049,7 +17014,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115393500000X</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -17126,7 +17091,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111185000000J</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -17198,7 +17163,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126692000000V</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -17270,7 +17235,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112852600000L</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -17347,7 +17312,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110057400000E</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -17424,7 +17389,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102159400000F</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -17506,7 +17471,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129272700000J</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -17593,7 +17558,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112789800000W</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -17670,7 +17635,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102114500000A</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -17752,7 +17717,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104296900000R</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -17829,7 +17794,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131900300000V</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -17901,7 +17866,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120076700000P</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17973,7 +17938,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130563400000P</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -18050,7 +18015,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108639200000D</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -18130,11 +18095,6 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>REVERE TECHNOLOGIES (RWANDA) Limited</t>
@@ -18214,7 +18174,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115491300000V</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -18291,7 +18251,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107730100000C</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -18363,7 +18323,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113614300000S</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -18435,7 +18395,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101250800000Y</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -18510,11 +18470,6 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>SRI INFRA CONSULTING ENGINEERS PRIVATE LIMITED</t>
@@ -18594,7 +18549,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104333700000S</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -18676,7 +18631,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104029600000G</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -18748,7 +18703,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122048200000A</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -18820,7 +18775,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3125999600000M</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -18892,7 +18847,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120213200000V</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -18964,7 +18919,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3124311900000N</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -19036,7 +18991,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102511500000Z</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -19108,7 +19063,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115856800000X</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -19180,7 +19135,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103900200000K</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -19257,7 +19212,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103939100000P</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -19339,7 +19294,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100909800000S</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -19416,7 +19371,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132262500000H</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -19488,7 +19443,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100868000000Z</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -19555,7 +19510,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103916300000W</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -19632,7 +19587,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115703800000L</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -19709,7 +19664,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116041500000M</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -19791,7 +19746,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114207100000Z</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -19873,7 +19828,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3125725400000H</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -19945,7 +19900,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106353400000N</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -20017,7 +19972,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112978600000A</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -20094,7 +20049,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3128849800000E</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -20171,7 +20126,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104842300000J</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -20248,7 +20203,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119858800000E</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -20325,7 +20280,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104179000000S</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -20402,7 +20357,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116061900000K</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -20484,7 +20439,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104515200000M</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -20561,7 +20516,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101091000000B</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -20638,7 +20593,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103409800000D</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -20715,7 +20670,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111965000000P</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -20792,7 +20747,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116720900000P</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -20864,7 +20819,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130652000000W</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -20934,11 +20889,6 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>NSABIMANA Valens</t>
@@ -21008,7 +20958,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115733400000W</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -21085,7 +21035,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126965900000S</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -21157,7 +21107,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113206600000F</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -21234,7 +21184,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133684200000L</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -21306,7 +21256,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119708400000G</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -21383,7 +21333,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133821700000D</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -21455,7 +21405,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115135600000W</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -21527,7 +21477,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102503800000J</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -21604,7 +21554,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3124114000000X</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -21686,7 +21636,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116768800000S</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -21763,7 +21713,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103766300000S</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -21840,7 +21790,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116172000000B</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -21922,7 +21872,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114281600000Z</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -21999,7 +21949,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109364700000R</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -22071,7 +22021,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101364000000W</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -22153,7 +22103,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132114000000R</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -22225,7 +22175,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131228700000Q</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -22297,7 +22247,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115335200000X</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -22369,7 +22319,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114943700000K</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -22451,7 +22401,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110487900000P</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -22523,7 +22473,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102075100000G</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -22600,7 +22550,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134515100000N</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -22672,7 +22622,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119266600000W</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -22744,7 +22694,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109120000000N</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -22816,7 +22766,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106652400000X</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -22893,7 +22843,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117758800000Q</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -22965,7 +22915,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132251500000T</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -23037,7 +22987,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107393300000K</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -23119,7 +23069,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122190700000W</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -23191,7 +23141,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119161900000D</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -23263,7 +23213,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103164500000M</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -23335,7 +23285,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>1301599000000R</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -23417,7 +23367,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130893700000B</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -23489,7 +23439,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104038100000M</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -23566,7 +23516,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102012000000L</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -23643,7 +23593,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130170700000C</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -23715,7 +23665,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122485700000T</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -23792,7 +23742,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104610300000N</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -23864,7 +23814,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126086700000X</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -23946,7 +23896,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117304100000V</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -24023,7 +23973,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114107200000C</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -24090,7 +24040,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121846000000G</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -24162,7 +24112,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101710800000Z</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -24239,7 +24189,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130826700000D</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -24311,7 +24261,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132395400000X</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -24388,7 +24338,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108433100000N</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -24465,7 +24415,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134218500000E</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -24537,7 +24487,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119748100000G</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -24609,7 +24559,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114148500000M</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -24681,7 +24631,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107190800000V</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -24748,7 +24698,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105735900000B</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -24815,7 +24765,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3127136300000P</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -24887,7 +24837,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110990400000B</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -24959,7 +24909,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101859600000G</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -25036,7 +24986,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108426100000E</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -25103,7 +25053,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108461900000M</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -25180,7 +25130,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119874000000S</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -25262,7 +25212,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130649200000K</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -25339,7 +25289,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104378300000X</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -25416,7 +25366,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122945100000S</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -25488,7 +25438,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122504500000X</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -25560,7 +25510,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116221100000A</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -25637,7 +25587,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115104700000C</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -25724,7 +25674,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112546200000J</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -25796,7 +25746,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132392900000S</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -25868,7 +25818,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109123700000X</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -25945,7 +25895,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122204900000Q</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -26022,7 +25972,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121694300000P</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -26094,7 +26044,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114574500000Y</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -26166,7 +26116,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112498500000C</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -26238,7 +26188,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3128935400000N</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -26310,7 +26260,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108150300000E</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -26387,7 +26337,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107053000000R</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -26464,7 +26414,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103639800000J</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -26541,7 +26491,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103321800000A</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -26613,7 +26563,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131810600000X</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -26685,7 +26635,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104321700000W</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -26757,7 +26707,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3127701700000Z</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -26829,7 +26779,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103684400000T</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -26911,7 +26861,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108819400000T</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -26983,7 +26933,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133808200000A</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -27055,7 +27005,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126541000000Z</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -27127,7 +27077,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114640100000T</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -27199,7 +27149,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118918300000L</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -27274,11 +27224,6 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>YELBRIDGES LIMITED</t>
@@ -27358,7 +27303,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101765000000A</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -27435,7 +27380,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3125703400000E</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -27507,7 +27452,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102510600000A</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -27579,7 +27524,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107066400000F</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -27656,7 +27601,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123601300000R</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -27728,7 +27673,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101387600000J</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -27805,7 +27750,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3134130900000L</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27887,7 +27832,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107013400000A</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -27964,7 +27909,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133952000000A</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -28036,7 +27981,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116864800000S</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -28108,7 +28053,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115998500000S</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -28185,7 +28130,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135600900000Y</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -28257,7 +28202,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3135478400000A</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -28329,7 +28274,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109502000000M</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -28401,7 +28346,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121495600000M</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28473,7 +28418,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>1300725700000H</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28555,7 +28500,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102252100000G</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -28627,7 +28572,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106063900000X</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -28699,7 +28644,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102294700000A</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -28776,7 +28721,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115792500000L</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -28848,7 +28793,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120178900000C</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -28920,7 +28865,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104214900000Z</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -29002,7 +28947,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119699500000B</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -29077,11 +29022,6 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>KALISA STEPHEN</t>
@@ -29156,7 +29096,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116253100000K</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -29228,7 +29168,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120510700000G</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -29300,7 +29240,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3128066300000H</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -29372,7 +29312,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130816600000N</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -29444,7 +29384,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104449700000A</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -29521,7 +29461,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103943000000R</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -29598,7 +29538,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114859500000P</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -29680,7 +29620,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114868800000P</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -29752,7 +29692,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109023700000R</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -29829,7 +29769,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112224100000F</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -29901,7 +29841,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103996500000Q</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -29978,7 +29918,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116460700000G</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -30050,7 +29990,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116402700000H</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -30122,7 +30062,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102303200000W</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -30194,7 +30134,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126003500000E</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -30271,7 +30211,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112895900000L</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -30343,7 +30283,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104979700000X</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -30420,7 +30360,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101147500000N</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -30502,7 +30442,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103380400000X</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -30584,7 +30524,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117465400000Y</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -30656,7 +30596,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108928000000N</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -30723,7 +30663,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111061100000T</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -30800,7 +30740,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111603700000E</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -30872,7 +30812,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117316400000S</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -30944,7 +30884,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114505100000A</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -31016,7 +30956,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115399100000H</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -31088,7 +31028,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104017800000C</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -31165,7 +31105,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132113700000V</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -31237,7 +31177,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123021300000X</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -31309,7 +31249,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130796000000H</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -31381,7 +31321,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116223200000Z</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -31458,7 +31398,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101381100000V</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -31540,7 +31480,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132345700000Q</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -31612,7 +31552,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102132800000Z</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -31694,7 +31634,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122039900000M</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -31766,7 +31706,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109871400000B</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -31838,7 +31778,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132114700000C</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -31920,7 +31860,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108971500000L</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -31992,7 +31932,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116964900000G</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -32064,7 +32004,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115166300000X</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -32136,7 +32076,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109925900000Y</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -32208,7 +32148,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106580600000N</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -32275,7 +32215,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103042200000C</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -32352,7 +32292,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133857000000H</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -32424,7 +32364,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132242200000T</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -32501,7 +32441,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3125078600000S</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -32573,7 +32513,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121007500000N</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -32645,7 +32585,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112517100000N</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -32722,7 +32662,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104175200000E</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -32794,7 +32734,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100989200000S</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -32871,7 +32811,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115328300000X</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -32943,7 +32883,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108190500000Y</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -33020,7 +32960,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106098600000D</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -33097,7 +33037,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121997200000V</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -33169,7 +33109,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117780100000N</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -33256,7 +33196,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3127442200000Y</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -33328,7 +33268,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106506800000Z</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -33405,7 +33345,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108805500000Q</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -33482,7 +33422,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107730500000M</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -33564,7 +33504,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102108300000G</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -33639,11 +33579,6 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>6900018000</t>
-        </is>
-      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>REBERO Augustin</t>
@@ -33713,7 +33648,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108311700000G</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -33795,7 +33730,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106501300000S</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -33872,7 +33807,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105534900000H</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -33949,7 +33884,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100230200000D</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -34026,7 +33961,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119594800000J</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -34098,7 +34033,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132016500000V</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -34170,7 +34105,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119700500000E</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -34247,7 +34182,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115617400000H</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -34319,7 +34254,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113694300000V</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -34391,7 +34326,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133877800000Q</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -34463,7 +34398,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103043600000V</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -34540,7 +34475,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108251200000J</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -34627,7 +34562,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103535100000M</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -34699,7 +34634,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103753900000Q</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -34776,7 +34711,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103320500000R</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -34848,7 +34783,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120287200000W</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -34920,7 +34855,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3124442900000W</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -34992,7 +34927,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3107109700000W</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -35064,7 +34999,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101215200000H</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -35141,7 +35076,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3123445100000V</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -35218,7 +35153,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106902100000E</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -35295,7 +35230,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116315600000Y</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -35367,7 +35302,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115337600000X</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -35439,7 +35374,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104237800000B</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -35511,7 +35446,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115024500000S</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -35583,7 +35518,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110775900000J</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -35660,7 +35595,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121295600000B</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -35737,7 +35672,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117822500000E</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -35809,7 +35744,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103200900000H</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -35886,7 +35821,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122105300000Q</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -35958,7 +35893,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110320700000Z</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -36035,7 +35970,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3114955900000Z</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -36117,7 +36052,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106352700000G</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -36199,7 +36134,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3119566200000C</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -36271,7 +36206,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105686900000L</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -36343,7 +36278,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115281700000M</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -36420,7 +36355,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115301100000N</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -36492,7 +36427,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108726000000M</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -36569,7 +36504,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116946000000F</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -36641,7 +36576,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3108167000000N</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -36718,7 +36653,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104239700000H</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -36790,7 +36725,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101565100000Y</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -36867,7 +36802,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100926200000F</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -36944,7 +36879,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117522800000P</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -37016,7 +36951,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121964100000T</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -37088,7 +37023,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130417800000R</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -37160,7 +37095,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118776600000A</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -37232,7 +37167,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112182500000J</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -37309,7 +37244,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101259700000H</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -37386,7 +37321,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3131887700000E</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -37463,7 +37398,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121056000000V</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -37535,7 +37470,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121469100000E</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -37612,7 +37547,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116989000000E</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -37684,7 +37619,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101239400000T</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -37761,7 +37696,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101979000000Y</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -37838,7 +37773,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3110567900000G</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -37910,7 +37845,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>31352378000000</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -37987,7 +37922,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132437800000N</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -38059,7 +37994,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3126657200000Z</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -38131,7 +38066,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3122245900000Z</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -38203,7 +38138,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115863100000V</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -38275,7 +38210,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102619000000X</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -38347,7 +38282,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116640500000M</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -38424,7 +38359,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101447200000D</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -38501,7 +38436,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3130045300000F</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -38573,7 +38508,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132409900000S</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -38645,7 +38580,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112739300000V</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -38717,7 +38652,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3109162000000E</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -38799,7 +38734,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104374200000H</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -38876,7 +38811,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111483900000N</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -38953,7 +38888,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129249900000K</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -39025,7 +38960,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104341400000H</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -39107,7 +39042,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115177200000C</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -39179,7 +39114,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3129851600000M</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -39251,7 +39186,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113902400000W</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -39323,7 +39258,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3133432400000V</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -39395,7 +39330,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118069400000L</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -39467,7 +39402,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3121745100000C</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -39539,7 +39474,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132099300000C</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -39611,7 +39546,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3115016400000S</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -39688,7 +39623,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3112598800000J</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -39760,7 +39695,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101393200000A</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -39837,7 +39772,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3106381100000R</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -39914,7 +39849,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3117305200000L</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -39991,7 +39926,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3116657500000X</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -40068,7 +40003,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113532600000L</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -40145,7 +40080,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3113680800000B</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -40222,7 +40157,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3120700200000S</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -40294,7 +40229,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3118336000000A</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -40366,7 +40301,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3104605000000T</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -40438,7 +40373,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102237900000B</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -40520,7 +40455,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3101731800000V</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -40597,7 +40532,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3132378100000F</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -40669,7 +40604,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3111211400000Y</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -40746,7 +40681,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3102432800000Q</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -40818,7 +40753,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3105168800000C</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -40890,7 +40825,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3103803400000V</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -40967,7 +40902,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>6900018000</t>
+          <t>3100857500000D</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">

--- a/data/cached_generated_reports/all_time/red_flag_8.xlsx
+++ b/data/cached_generated_reports/all_time/red_flag_8.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +511,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3106240500000M</t>
+          <t>3101291700000Y</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CENTRE D'ACCUEIL SAINTE SCHOLASTIQUE  LTD</t>
+          <t>COMPUTER SUPPORT AND CONSULTANCY  LTD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,27 +526,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CENTRE D'ACCUEIL SAINTE SCHOLASTIQUE  LTD</t>
+          <t>COMPUTER SUPPORT AND CONSULTANCY  LTD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOVU :</t>
+          <t>Nyarugenge Distrct, Kigali City</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SOVU :</t>
+          <t>Nyarugenge Distrct, Kigali City</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SOVU :</t>
+          <t>Nyarugenge Distrct, Kigali City</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>232_Butare</t>
+          <t>1454 Kigali</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>sb.monastere@gmail.com</t>
+          <t>cscit2012@gmail.com</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0788463305</t>
+          <t>0788307717</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1196970017907176</t>
+          <t>119608006883113</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -576,24 +576,24 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>102965552</t>
+          <t>101471010</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3135198900000Q</t>
+          <t>3106999100000R</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IGICUMBI MOTEL Ltd</t>
+          <t>FIRAL GENERAL SUPPLIES  LTD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,22 +603,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IGICUMBI MOTEL Ltd</t>
+          <t>FIRAL GENERAL SUPPLIES  LTD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gasabo-rusororo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>gasabo-rusororo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gasabo-rusororo</t>
+          <t>NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>936</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -628,17 +633,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>igicumbimotelltd@gmail.com</t>
+          <t>yombimarket@gmail.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>788783028</t>
+          <t>0788303200</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1198880071776038</t>
+          <t>1197070009123036</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -648,24 +653,24 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>123020004</t>
+          <t>103088741</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3116253100000K</t>
+          <t>3116089900000J</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MOON CAR WASH Ltd</t>
+          <t>AIME TSINDA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -675,22 +680,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MOON CAR WASH Ltd</t>
+          <t>AIME TSINDA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gasabo-Remera, Nyarutarama</t>
+          <t>Kimihurura, Gasabo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gasabo-Remera, Nyarutarama</t>
+          <t>Kimihurura, Gasabo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gasabo-Remera, Nyarutarama</t>
+          <t>Kimihurura, Gasabo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -700,44 +705,44 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>tracymonica20@gmail.com</t>
+          <t>aime.tsinda@gmail.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0783027808</t>
+          <t>0788305960</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1198970005365031</t>
+          <t>1197780110847015</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandese</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>ECOBANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>108649961</t>
+          <t>101970473</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3132378100000F</t>
+          <t>3102545200000Y</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F &amp; A REAL  DELIVER Ltd</t>
+          <t>VINES COMMODITY TRADERS  LTD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -747,22 +752,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F &amp; A REAL  DELIVER Ltd</t>
+          <t>VINES COMMODITY TRADERS  LTD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>Kigali</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -772,17 +782,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fandadeliver@gmail.com</t>
+          <t>hersengoga@gmail.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>788307350</t>
+          <t>788312189</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1198680008915004</t>
+          <t>1197380009203114</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -792,24 +802,24 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>122169596</t>
+          <t>102115464</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3122997500000A</t>
+          <t>3102439800000T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BPLUS Ltd</t>
+          <t>JKK INTERNATIONAL AFRICA  LTD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -819,27 +829,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BPLUS Ltd</t>
+          <t>JKK INTERNATIONAL AFRICA  LTD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MUHIMA-NYARUGENGE</t>
+          <t>GIKONDO, KIGALI - RWANDA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MUHIMA-NYARUGENGE</t>
+          <t>GIKONDO, KIGALI - RWANDA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MUHIMA-NYARUGENGE</t>
+          <t>GIKONDO, KIGALI - RWANDA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6092</t>
+          <t>4715 KIGALI</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -849,49 +859,49 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bplusrwanda@gmail.com</t>
+          <t>koshy@jkkafrica.com</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0788305340</t>
+          <t>0783004076</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>www.bplusrwanda.com</t>
+          <t>www.jkkafrica.com</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1198580140864195</t>
+          <t>Z2038185</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>GT Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>120046972</t>
+          <t>102048780</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3101447200000D</t>
+          <t>3101516900000S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GREAT LAKES COMMUNICATIONS AND MEDIA CENTRE Ltd</t>
+          <t>MEGA BUSINESS SERVICES (M.B.S) Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -901,27 +911,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GREAT LAKES COMMUNICATIONS AND MEDIA CENTRE Ltd</t>
+          <t>MEGA BUSINESS SERVICES (M.B.S) Ltd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
+          <t>Kamuhoza :</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
+          <t>Kamuhoza :</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>5606</t>
+          <t>Kamuhoza :</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -931,17 +936,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>doshivijay@yahoo.com</t>
+          <t>megabusiness2020@gmail.com</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0788389710</t>
+          <t>0788356629</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1197080006204060</t>
+          <t>1197280000772269</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -951,24 +956,24 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>101492031</t>
+          <t>101561958</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3103939100000P</t>
+          <t>3100822800000X</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AIRTEL RWANDA Ltd</t>
+          <t>FAIR CONSTRUCTION  LTD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -978,27 +983,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AIRTEL RWANDA Ltd</t>
+          <t>FAIR CONSTRUCTION  LTD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NYABISINDU</t>
+          <t>PLOT NO 5299, AVENUE DES POIDS LOURDS; KIGALI</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NYABISINDU</t>
+          <t>PLOT NO 5299, AVENUE DES POIDS LOURDS; KIGALI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NYABISINDU</t>
+          <t>PLOT NO 5299, AVENUE DES POIDS LOURDS; KIGALI</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4164 Kigali</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1008,27 +1013,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>emmanuel.hamez@rw.airtel.com</t>
+          <t>n.medhi@fairconstructionrw.com</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0731000096</t>
+          <t>0738309202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>www.airtel.com</t>
+          <t>www.fairconstructionrw.com</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>20DH25860</t>
+          <t>3197380097747196</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>INDIAN</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1038,19 +1043,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>102437818</t>
+          <t>100011916</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3131721700000P</t>
+          <t>3101042500000V</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ELYSIUM CONSULTS Ltd</t>
+          <t>SYBYL LTD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1060,22 +1065,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELYSIUM CONSULTS Ltd</t>
+          <t>SYBYL LTD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kicukiro-Kigali</t>
+          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kicukiro-Kigali</t>
+          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kicukiro-Kigali</t>
+          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6647</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1085,44 +1095,49 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>elysiumconsults20@gmail.com</t>
+          <t>ranjit.sudhakaran@sybyl.com</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0798220182</t>
+          <t>0788306323</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>www.sybyl.com</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1199970126515029</t>
+          <t>Z4205753</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>INDIAN</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bank of Africa Rwanda</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>111685329</t>
+          <t>100156896</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3106584300000S</t>
+          <t>3101163300000D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R CLAVER COMPANY Ltd</t>
+          <t>ABACUS PHARMA (A) Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1132,27 +1147,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R CLAVER COMPANY Ltd</t>
+          <t>ABACUS PHARMA (A) Ltd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MUHANGA</t>
+          <t>Nyarugenge, Kigali</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MUHANGA</t>
+          <t>Nyarugenge, Kigali</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MUHANGA</t>
+          <t>Nyarugenge, Kigali</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24 GITARAMA</t>
+          <t>4344 Kigali</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1162,44 +1177,44 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>rclaverltd@gmail.com</t>
+          <t>abacusrwanda@gmail.com</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0722386190</t>
+          <t>0788864074</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1198970190106073</t>
+          <t>3196880084701140</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>INDIAN</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bank of Africa Rwanda</t>
+          <t>FINA BANK</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>103008597</t>
+          <t>100304988</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3121745100000C</t>
+          <t>3102114500000A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>H COMPLEX Ltd</t>
+          <t>IGIHE  LTD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1209,22 +1224,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>H COMPLEX Ltd</t>
+          <t>IGIHE  LTD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>KN 82 ST NYARUGENGE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>KN 82 ST NYARUGENGE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>KN 82 ST NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4317</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1234,17 +1254,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bjclaude05@gmail.com</t>
+          <t>meilleur@igihe.org</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>785811605</t>
+          <t>0788742908</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>igihe.org</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1199080060214046</t>
+          <t>1198480201141072</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1254,19 +1279,24 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>119061318</t>
+          <t>101934541</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3101846600000C</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GROUPE HUIT</t>
+          <t>APPROCHER LE COMMERCE POUR ETRE AU RANG (ACER)  LTD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1276,64 +1306,69 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GROUPE HUIT</t>
+          <t>APPROCHER LE COMMERCE POUR ETRE AU RANG (ACER)  LTD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4 Rue René Viviani, 44200 Nantes</t>
+          <t>Kiyovu NYARUGENGE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4 Rue René Viviani, 44200 Nantes</t>
+          <t>Kiyovu NYARUGENGE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4 Rue René Viviani, 44200 Nantes</t>
+          <t>Kiyovu NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4616 Kigali</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>groupehuit@groupehuit.com</t>
+          <t>vdshabyalimana@yahoo.fr</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0670666046</t>
+          <t>788307225</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>FRENCH</t>
+          <t>1197380008587057</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Grand Ouest Banque Populaire</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>334162583</t>
+          <t>101811557</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3117304100000V</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VI.VE HOTEL&amp; APARTMENT Ltd</t>
+          <t>Sanny Rwego Ntayombya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1343,27 +1378,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VI.VE HOTEL&amp; APARTMENT Ltd</t>
+          <t>Sanny Rwego Ntayombya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RUSIZI</t>
+          <t>Kigali, Rwanda</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RUSIZI</t>
+          <t>Kigali, Rwanda</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RUSIZI</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>80 RUSIZI</t>
+          <t>Kigali, Rwanda</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1371,46 +1401,41 @@
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>twizeviking@gmail.com</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>788309235</t>
+          <t>0722123408</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1197380035696050</t>
+          <t>198080043392143</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>108382117</t>
+          <t>107300783</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3104449700000A</t>
+          <t>3101103600000Q</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NORTH MULTIBUSINESS COMPANY  LTD</t>
+          <t>SOCIETE PETROLIERE  LTD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1420,27 +1445,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NORTH MULTIBUSINESS COMPANY  LTD</t>
+          <t>SOCIETE PETROLIERE  LTD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mpenge :</t>
+          <t>Kinunga :</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mpenge :</t>
+          <t>Kinunga :</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mpenge :</t>
+          <t>Kinunga :</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31 RUHENGERI</t>
+          <t>144 KIGALI - RWANDA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1450,22 +1475,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>laujanine@yahoo.fr</t>
+          <t>chabimana@sp.co.rw</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0788406922</t>
+          <t>0788306233</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1196380046911063</t>
+          <t>16FV05088</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>FRENCH</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1475,19 +1500,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>102587564</t>
+          <t>100222174</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3106063900000X</t>
+          <t>3104406100000Z</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WOMEN TRANSPORT  LTD</t>
+          <t>MEROLEG TECHNOLOGY SOLUTIONS  LTD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1497,27 +1522,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WOMEN TRANSPORT  LTD</t>
+          <t>MEROLEG TECHNOLOGY SOLUTIONS  LTD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gisozi: Gakililo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gisozi: Gakililo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gisozi: Gakililo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1913 Kigali, Rwanda</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1525,14 +1550,19 @@
           <t>Rwanda</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>merolegts@gmail.com</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0788868840</t>
+          <t>0788303350</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1197970123639166</t>
+          <t>1198180018354051</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1542,24 +1572,24 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>102929604</t>
+          <t>102572421</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3101244400000M</t>
+          <t>3113496000000Y</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CENTRE PASTORAL NOTRE DAME DE FATIMA  LTD</t>
+          <t>AXE VENTURES Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1569,27 +1599,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CENTRE PASTORAL NOTRE DAME DE FATIMA  LTD</t>
+          <t>AXE VENTURES Ltd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MUSANZE DISTRICT, NORTHERN PROVINCE</t>
+          <t>PO Box 746</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MUSANZE DISTRICT, NORTHERN PROVINCE</t>
+          <t>PO Box 746</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MUSANZE DISTRICT, NORTHERN PROVINCE</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>45 RUHENGERI</t>
+          <t>PO Box 746</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1599,22 +1624,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>hagaba04@yahoo.fr</t>
+          <t>bkatera@gmail.com</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0788324033</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>www.fatimamusanze.com</t>
+          <t>788308826</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1197680061514081</t>
+          <t>1197880007751034</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1624,24 +1644,24 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>100543825</t>
+          <t>106616848</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3116640500000M</t>
+          <t>3113147600000J</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C&amp;D PRODUCTS RWANDA Ltd</t>
+          <t>PROXY COMPANY Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1651,27 +1671,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C&amp;D PRODUCTS RWANDA Ltd</t>
+          <t>PROXY COMPANY Ltd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Street RDA Special Economic Zone, Gasabo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Street RDA Special Economic Zone, Gasabo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Street RDA Special Economic Zone, Gasabo</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6857</t>
+          <t>6146</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1681,44 +1701,44 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>maryse.gallagher@pink-mango.com</t>
+          <t>nyangezijea@gmail.com</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0738014026</t>
+          <t>0788211764</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>E99816757</t>
+          <t>1198170003419088</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bank of Africa Rwanda</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>108827479</t>
+          <t>106398055</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3113694300000V</t>
+          <t>3110631200000L</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HECTOR Ltd</t>
+          <t>WISE TECH Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1728,22 +1748,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HECTOR Ltd</t>
+          <t>WISE TECH Ltd</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>Huye</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>Huye</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>Huye</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>189 Huye</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1753,17 +1778,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>gloriachloee@gmail.com</t>
+          <t>wisetech40@gmail.com</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0788317423</t>
+          <t>0734803409</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1198970187143189</t>
+          <t>1199170024776090</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1773,24 +1798,19 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>106705981</t>
+          <t>103645129</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3101393200000A</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CODACE</t>
+          <t>Execellent Operations Consultants Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1800,74 +1820,64 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CODACE</t>
+          <t>Execellent Operations Consultants Limited</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Avenue de la justice, NIZA PLAZA 2nd floor</t>
+          <t>Mahiga Mairu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Avenue de la justice, NIZA PLAZA 2nd floor</t>
+          <t>Mahiga Mairu</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Avenue de la justice, NIZA PLAZA 2nd floor</t>
+          <t>Mahiga Mairu</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>565 Kigali, Rwanda</t>
+          <t>1326-00600 Nairobi</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>ingabirekate@yahoo.com</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0788482709</t>
+          <t>254722361670</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1199070171025022</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>RWANDESE</t>
+          <t>10673861</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>KCB</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>101407029</t>
+          <t>C22457</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3123601300000R</t>
+          <t>3114113500000E</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ACTS JORDAN COMPANY Ltd</t>
+          <t>Gregory Dean Fenton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1877,22 +1887,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ACTS JORDAN COMPANY Ltd</t>
+          <t>Gregory Dean Fenton</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KIGALI CITY NYARUGENGE DISTRICT MUHIMA SECTOR</t>
+          <t>#287, 2020 Estate, Gacuriro, Kigali</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>KIGALI CITY NYARUGENGE DISTRICT MUHIMA SECTOR</t>
+          <t>#287, 2020 Estate, Gacuriro, Kigali</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>KIGALI CITY NYARUGENGE DISTRICT MUHIMA SECTOR</t>
+          <t>#287, 2020 Estate, Gacuriro, Kigali</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1900,24 +1910,19 @@
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>actsjordancompany@gmail.com</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0787579808</t>
+          <t>0789966080</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1199580078854104</t>
+          <t>GM186016</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1927,19 +1932,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>120276215</t>
+          <t>106940270</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3119699500000B</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BETTER ON TIME SERVICES Ltd</t>
+          <t>George Okeyo Apaka</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1949,74 +1949,74 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BETTER ON TIME SERVICES Ltd</t>
+          <t>George Okeyo Apaka</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Muhima sector-Nyarugenge district</t>
+          <t>33 Fricker Road, Illovo Boulevard, Illovo, 2196, PO Box 41706, Craig hall, 2024, Johannesburg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Muhima sector-Nyarugenge district</t>
+          <t>33 Fricker Road, Illovo Boulevard, Illovo, 2196, PO Box 41706, Craig hall, 2024, Johannesburg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Muhima sector-Nyarugenge district</t>
+          <t>33 Fricker Road, Illovo Boulevard, Illovo, 2196, PO Box 41706, Craig hall, 2024, Johannesburg</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>41706 Craighall</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>nkurunzizaangelo@gmail.com</t>
+          <t>okeyoa@yahoo.com</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>787379960</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>http//www.botsltd.com</t>
+          <t>27609974812</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1199280017845182</t>
+          <t>10843214</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>FNB</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>111632784</t>
+          <t>10843214</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3103684400000T</t>
+          <t>3104354200000V</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KIGALI VIEW HOTEL &amp; APPARTMENT  LTD</t>
+          <t>FRI SOFT  LTD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2026,27 +2026,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KIGALI VIEW HOTEL &amp; APPARTMENT  LTD</t>
+          <t>FRI SOFT  LTD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kigali - Nyamirambo</t>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kigali - Nyamirambo</t>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kigali - Nyamirambo</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3815</t>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2056,22 +2051,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>hjpcr28@gmail.com</t>
+          <t>habumugisha2017@gmail.com</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0788923698</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>www.kigaliviewhotel.com</t>
+          <t>0785553103</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1196780000984102</t>
+          <t>1198970022801012</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2081,24 +2071,24 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>102359881</t>
+          <t>102556417</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3108928000000N</t>
+          <t>3103256800000C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CODET BUSINESS COMPANY  LTD</t>
+          <t>FAST NET COMPANY  LTD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2108,22 +2098,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CODET BUSINESS COMPANY  LTD</t>
+          <t>FAST NET COMPANY  LTD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>nyamabuye :</t>
+          <t>KICUKIRO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>nyamabuye :</t>
+          <t>KICUKIRO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>nyamabuye :</t>
+          <t>KICUKIRO</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3241</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2131,14 +2126,19 @@
           <t>Rwanda</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>francoisdany79@gmail.com</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0725418990</t>
+          <t>0788308035</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1198980001875098</t>
+          <t>1197980059801013</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2148,24 +2148,24 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>103367569</t>
+          <t>102214381</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3106506800000Z</t>
+          <t>3101043100000S</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>REGIONAL RESEARCH CENTRE FOR INTEGRATED DEVELOPMENT(RCID)  LTD</t>
+          <t>CENTRE MULTI TECHNIQUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2175,27 +2175,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>REGIONAL RESEARCH CENTRE FOR INTEGRATED DEVELOPMENT(RCID)  LTD</t>
+          <t>CENTRE MULTI TECHNIQUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gasabo,kimironko</t>
+          <t>Nyarugenge Kigali City</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>gasabo,kimironko</t>
+          <t>Nyarugenge Kigali City</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gasabo,kimironko</t>
+          <t>Nyarugenge Kigali City</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1763 kgl</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2205,17 +2205,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>rcidcentre@gmail.com</t>
+          <t>cmtkdj@yahoo.fr</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0788589224</t>
+          <t>0788355597</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>www.centremultitechniques.com</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1197380007142024</t>
+          <t>1196080004042084</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2225,19 +2230,24 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>102998521</t>
+          <t>100452496</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3101074800000F</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>urbaplan SA</t>
+          <t>ATLANTIS CONSULT  LTD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2247,59 +2257,74 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>urbaplan SA</t>
+          <t>ATLANTIS CONSULT  LTD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>avenue de montchoisi 21</t>
+          <t>1KG 5Av</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>avenue de montchoisi 21</t>
+          <t>1KG 5Av</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>avenue de montchoisi 21</t>
+          <t>1KG 5Av</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3383</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>andymunya2002@yahoo.fr</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0041774466106</t>
+          <t>0788301339</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>X7774475</t>
+          <t>1195780003374068</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Crédit Suisse (Suisse) SA</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>CHE-105.763.181</t>
+          <t>100227639</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3100906500000T</t>
+          <t>3102523100000L</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TELEDISTRIBUTION "TELE-10" Ltd</t>
+          <t>ESRI RWANDA  LTD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2309,27 +2334,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TELEDISTRIBUTION "TELE-10" Ltd</t>
+          <t>ESRI RWANDA  LTD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gasabo,Remera,Gishushu</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gasabo,Remera,Gishushu</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gasabo,Remera,Gishushu</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4307</t>
+          <t>6867</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2339,49 +2364,49 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>nyagadesi@gmail.com</t>
+          <t>j.gatera@esri.rw</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>788301111</t>
+          <t>788914091</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>www.tele.co.rw</t>
+          <t>www.esri.rw</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1195880002690068</t>
+          <t>1198080163851037</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>RWANDAN</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>ECOBANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>100144768</t>
+          <t>102110188</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3126965900000S</t>
+          <t>3104102500000M</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>QUICK SHINE CAR WASH Ltd</t>
+          <t>OLEA SUPPLIERS  LTD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2391,22 +2416,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>QUICK SHINE CAR WASH Ltd</t>
+          <t>OLEA SUPPLIERS  LTD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GASABO-REMERA</t>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GASABO-REMERA</t>
+          <t>Nyarugenge</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>GASABO-REMERA</t>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>6574</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2416,17 +2446,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>quickshine2023@gmail.com</t>
+          <t>oleasuppliersltd@gmail.com</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>788718808</t>
+          <t>788753545</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1198570185567109</t>
+          <t>1198280014085070</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2436,24 +2466,19 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>120827034</t>
+          <t>102484865</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>3132114700000C</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LUCERNA-KABGAYI HÔTEL Ltd</t>
+          <t>Zephanie Niyonkuru</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2463,27 +2488,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LUCERNA-KABGAYI HÔTEL Ltd</t>
+          <t>Zephanie Niyonkuru</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NYAMABUYE, MUHANGA, AMAJYEPFO, RWANDA</t>
+          <t>KK AV 3, Kigali, Rwanda, House #18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NYAMABUYE, MUHANGA, AMAJYEPFO, RWANDA</t>
+          <t>KK AV 3, Kigali, Rwanda, House #18</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NYAMABUYE, MUHANGA, AMAJYEPFO, RWANDA</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>59</t>
+          <t>KK AV 3, Kigali, Rwanda, House #18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2493,49 +2513,44 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>ndikuryayo2015@gmail.com</t>
+          <t>zniyonkuru@gmail.com</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>794191115</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>http://www.lucernakabgayihotel.com</t>
+          <t>0788304330</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1199080021416024</t>
+          <t>1198580012656032</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandese</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>122153725</t>
+          <t>102183637</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3118344100000A</t>
+          <t>3101453600000P</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PERKINS COMPANY Limited</t>
+          <t>Dash Global Technologies Ltd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2545,22 +2560,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PERKINS COMPANY Limited</t>
+          <t>Dash Global Technologies Ltd</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kigali,Gisozi Gacinjiro</t>
+          <t>KACYIIRU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kigali,Gisozi Gacinjiro</t>
+          <t>KACYIIRU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kigali,Gisozi Gacinjiro</t>
+          <t>KACYIIRU</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>746</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2570,17 +2590,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>perkinsrwanda@gmail.com</t>
+          <t>info@dashglobaltech.com</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0783344074</t>
+          <t>0788322374</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>250252580082</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>www.dashglobaltech.com</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1198880013738266</t>
+          <t>1197180003850011</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2590,24 +2620,24 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>FINA BANK</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>111083526</t>
+          <t>101457049</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3101274900000A</t>
+          <t>10230565S</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IMPRIMERIE AZ MEDIA PLUS  LTD</t>
+          <t>Charles Gasana</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2617,27 +2647,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IMPRIMERIE AZ MEDIA PLUS  LTD</t>
+          <t>Charles Gasana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nyarugenge</t>
+          <t>kg414st/38, Kigali</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nyarugenge</t>
+          <t>kg414st/38, Kigali</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nyarugenge</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>648 KIGALI RWANDA</t>
+          <t>kg414st/38, Kigali</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2647,49 +2672,44 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>mugambirajp@yahoo.fr</t>
+          <t>cgasana@gmail.com</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0788305816</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>www.azmediaplus.com</t>
+          <t>0788307202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>PC122417</t>
+          <t>1197080089283247</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BPR</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>101598480</t>
+          <t>100982035</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3129364500000F</t>
+          <t>3101286300000V</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NDOBA GROUP Ltd</t>
+          <t>EGECO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2699,22 +2719,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NDOBA GROUP Ltd</t>
+          <t>EGECO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>gasabo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>gasabo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>gasabo</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2724,17 +2744,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ndobagroup2023@gmail.com</t>
+          <t>ildephonsegeco@yahoo.com</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>780597793</t>
+          <t>0788524461</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1199880055786000</t>
+          <t>1196180055207085</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2744,24 +2764,24 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>GT Bank</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>121301758</t>
+          <t>101509351</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3134515100000N</t>
+          <t>3102360800000P</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FLANCOLIN Limited</t>
+          <t>MEDISELL RWANDA  LTD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2771,22 +2791,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FLANCOLIN Limited</t>
+          <t>MEDISELL RWANDA  LTD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KK 453 Kicukiro Magerwa-Gikondo SULFO HOUSE,2rd floor</t>
+          <t>GASABO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KK 453 Kicukiro Magerwa-Gikondo SULFO HOUSE,2rd floor</t>
+          <t>GASABO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KK 453 Kicukiro Magerwa-Gikondo SULFO HOUSE,2rd floor</t>
+          <t>GASABO</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5871</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2796,44 +2821,44 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>tumuclaude@gmail.com</t>
+          <t>a.papaloizou@medisellafrica.com</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>783624594</t>
+          <t>256772762300</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1198780161298307</t>
+          <t>K0079920</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>118585344</t>
+          <t>101897275</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3114955900000Z</t>
+          <t>3103621300000Y</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BANK OF KIGALI PLC</t>
+          <t>RWANDA PRINTING AND PUBLISHING COMPANY  LIMITED</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2843,27 +2868,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BANK OF KIGALI PLC</t>
+          <t>RWANDA PRINTING AND PUBLISHING COMPANY  LIMITED</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KN 4 ave no.12 Plot no.790</t>
+          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>KN 4 ave no.12 Plot no.790</t>
+          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>KN 4 ave no.12 Plot no.790</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>175 KIGALI</t>
+          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2873,49 +2893,44 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ebatanage@bk.rw</t>
+          <t>vijay@rppc.co.rw</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>788304228</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>wwww.bk.rw</t>
+          <t>0788307270</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1197680008891247</t>
+          <t>3197480106241107</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>BNR</t>
+          <t xml:space="preserve">COMMERCIAL BANK OF AFRICA (RWANDA) PLC </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>107610471</t>
+          <t>102344976</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3129851600000M</t>
+          <t>3102306400000L</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIX FIVE Ltd</t>
+          <t>BIOPHARMACIA COMPANY  LTD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2925,22 +2940,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SIX FIVE Ltd</t>
+          <t>BIOPHARMACIA COMPANY  LTD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kicukiro</t>
+          <t>CHIC BUILDING  , NYARUGENGE , KN2 AVE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kicukiro</t>
+          <t>CHIC BUILDING  , NYARUGENGE , KN2 AVE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kicukiro</t>
+          <t>CHIC BUILDING  , NYARUGENGE , KN2 AVE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2513 KIGALI-RWANDA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2950,17 +2970,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>hkcompany2023@gmail.com</t>
+          <t>info@biopharmacia.rw</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0788931119</t>
+          <t>0788573203</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>www.biopharmacia.net</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1199080125199160</t>
+          <t>1198180151606078</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2970,24 +2995,24 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>121375291</t>
+          <t>102014618</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3115606900000M</t>
+          <t>3100857500000D</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOURS DES PAYS DES GRANDS LACS (T.P.G.LA) Ltd</t>
+          <t>RUMA CERTIFIED PUBLIC  ACCOUNTANTS  LTD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2997,22 +3022,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TOURS DES PAYS DES GRANDS LACS (T.P.G.LA) Ltd</t>
+          <t>RUMA CERTIFIED PUBLIC  ACCOUNTANTS  LTD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KIMIHURURA</t>
+          <t>Kiyovu :</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>KIMIHURURA</t>
+          <t>Kiyovu :</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>KIMIHURURA</t>
+          <t>Kiyovu :</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2611</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3022,39 +3052,44 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>tpglagence@yahoo.fr</t>
+          <t>info@rumacpa.com</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0788303941</t>
+          <t>0788683226</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>info@rumacpa.com</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1196580003083194</t>
+          <t>Passport CK04266</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>KENYAN</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>108108866</t>
+          <t>101808553</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>SGI INGENIERIE SA</t>
+          <t>Eric Kacou</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3064,64 +3099,69 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SGI INGENIERIE SA</t>
+          <t>Eric Kacou</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>110, Chemin du Pont-du-Centenaire  CH- 1228 Plan-les-Ouates (GE)</t>
+          <t>06 BP 1831 Abidjan</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>110, Chemin du Pont-du-Centenaire  CH- 1228 Plan-les-Ouates (GE)</t>
+          <t>06 BP 1831 Abidjan</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>110, Chemin du Pont-du-Centenaire  CH- 1228 Plan-les-Ouates (GE)</t>
+          <t>06 BP 1831 Abidjan</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Cote DIvoire</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ekacou@gmail.com</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0041229794900</t>
+          <t>25559498434</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>16AF38115</t>
+          <t>15AH53501</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>FRENCH</t>
+          <t>Ivorian</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>CHE106105282</t>
+          <t>15AH53501</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3104581300000L</t>
+          <t>3103006000000P</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LAND HUSBANDRY AND AGRI PRODUCTION (LHAP) Ltd</t>
+          <t>AFRILOTT  LTD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3131,22 +3171,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LAND HUSBANDRY AND AGRI PRODUCTION (LHAP) Ltd</t>
+          <t>AFRILOTT  LTD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kacyiru</t>
+          <t>Kagugu</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kacyiru</t>
+          <t>Kagugu</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Kacyiru</t>
+          <t>Kagugu</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>855</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3156,17 +3201,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>nduwarcelin@gmail.com</t>
+          <t>embonyinshuti@epcafrica.com</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0788800744</t>
+          <t>0788389990</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>www.epcafrica.com</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1198480110625098</t>
+          <t>1198980213249003</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3176,24 +3226,24 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>102632531</t>
+          <t>102147925</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3116223200000Z</t>
+          <t>3101447200000D</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BTN TV Ltd</t>
+          <t>GREAT LAKES COMMUNICATIONS AND MEDIA CENTRE Ltd</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3203,22 +3253,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BTN TV Ltd</t>
+          <t>GREAT LAKES COMMUNICATIONS AND MEDIA CENTRE Ltd</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KN1</t>
+          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>KN1</t>
+          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>KN1</t>
+          <t>OPP. MAGERWA, EXPO GROUND, GIKONDO,KIGALI</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>5606</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3228,49 +3283,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>kamanzihussein@gmail.com</t>
+          <t>doshivijay@yahoo.com</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0788405245</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>www.btn.rw</t>
+          <t>0788389710</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1198180017614248</t>
+          <t>1197080006204060</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>GT Bank</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>108630482</t>
+          <t>101492031</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3104842300000J</t>
-        </is>
-      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SPORTSLAND Ltd</t>
+          <t>Ray Purcell</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3280,74 +3325,59 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPORTSLAND Ltd</t>
+          <t>Ray Purcell</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kiyovu :</t>
+          <t>7 TARBOT GARDENS, ELLESMERE, SHROPSHERE, UK SY50QZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kiyovu :</t>
+          <t>7 TARBOT GARDENS, ELLESMERE, SHROPSHERE, UK SY50QZ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Kiyovu :</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2434</t>
+          <t>7 TARBOT GARDENS, ELLESMERE, SHROPSHERE, UK SY50QZ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>sportslandrwanda@gmail.com</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>788737270</t>
+          <t>0788307202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1198580005509129</t>
+          <t>1197080089283247</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>KCB</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>102696878</t>
+          <t>536467975</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>3134140900000S</t>
-        </is>
-      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GENERAL UNITED SUPPLY Ltd</t>
+          <t>AGOG PHARMA LTD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3357,69 +3387,74 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GENERAL UNITED SUPPLY Ltd</t>
+          <t>AGOG PHARMA LTD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KIMIRONKO-GASABO</t>
+          <t>PLOT NO 33 SECTOR II THE VASAI TALUKA INDUSTERIAL CO OP ESTATE LTD GAURAIPADA VASAI EAST THANE 401208 INDIA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KIMIRONKO-GASABO</t>
+          <t>PLOT NO 33 SECTOR II THE VASAI TALUKA INDUSTERIAL CO OP ESTATE LTD GAURAIPADA VASAI EAST THANE 401208 INDIA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>KIMIRONKO-GASABO</t>
+          <t>PLOT NO 33 SECTOR II THE VASAI TALUKA INDUSTERIAL CO OP ESTATE LTD GAURAIPADA VASAI EAST THANE 401208 INDIA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>401208</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>India</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>generalbrightfuturecompanyltd@gmail</t>
+          <t>agoganil@rediffmail.com</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>782480419</t>
+          <t>02502452714</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>02502452074</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1200370015177093</t>
+          <t>PASSPORT</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>INDIAN</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>STATE BANK OF INDIA</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>122581350</t>
+          <t>059515</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3122223300000T</t>
-        </is>
-      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PACIS TELEVISION RWANDA (PACIS TV) Limited</t>
+          <t>CIMA INTERNATIONAL INC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3429,69 +3464,84 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PACIS TELEVISION RWANDA (PACIS TV) Limited</t>
+          <t>CIMA INTERNATIONAL INC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5 KG Street</t>
+          <t>3100, boulevard Le Carrefour, Suite 330 Laval (Québec) Canada   H7K 2K7</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5 KG Street</t>
+          <t>3100, boulevard Le Carrefour, Suite 330 Laval (Québec) Canada   H7K 2K7</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5 KG Street</t>
+          <t>3100, boulevard Le Carrefour, Suite 330 Laval (Québec) Canada   H7K 2K7</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Canada   H7V 3Z2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>info@pacistv.rw</t>
+          <t>sylrusa@yahoo.fr</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>788814307</t>
+          <t>0738502042</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1450682</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>www.cimaglobal.ca</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1195880012316196</t>
+          <t>1195980004443172</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>Canadian Imperial Bank of Commerce – CIBC</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>119875451</t>
+          <t>102536604</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3101042500000V</t>
+          <t>3103958000000L</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SYBYL LTD</t>
+          <t>RAPID AND SAFE IT SOLUTIONS  LIMITED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3501,27 +3551,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SYBYL LTD</t>
+          <t>RAPID AND SAFE IT SOLUTIONS  LIMITED</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>KG 274 St, KG 9 Ave, House Number # 3, Nyarutarama, Kigali-Rwanda</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>6647</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3531,49 +3576,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ranjit.sudhakaran@sybyl.com</t>
+          <t>hilari7@yahoo.fr</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0788306323</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>www.sybyl.com</t>
+          <t>0738425910</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Z4205753</t>
+          <t>1198070012443036</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>INDIAN</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>BPR</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>100156896</t>
+          <t>102444171</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>3102413600000S</t>
-        </is>
-      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DUPLICATOR  LTD</t>
+          <t>TRACK Manufacturing Co. Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3583,223 +3618,203 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DUPLICATOR  LTD</t>
+          <t>TRACK Manufacturing Co. Pvt. Ltd.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KABEZA :</t>
+          <t>Off. No. 3, Asia House, K.G. Marg, Opposite Bhartiya Vidya Bhawan, Connaught Place, New Delhi-110001 INDIA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>KABEZA :</t>
+          <t>Off. No. 3, Asia House, K.G. Marg, Opposite Bhartiya Vidya Bhawan, Connaught Place, New Delhi-110001 INDIA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>KABEZA :</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>6332 Kigali</t>
+          <t>Off. No. 3, Asia House, K.G. Marg, Opposite Bhartiya Vidya Bhawan, Connaught Place, New Delhi-110001 INDIA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>pradeeptrack@gmail.com</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>9810734146</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>07210322930</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Anatech Instrument</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Anatech Instrument</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MEADOWBROOK BUSINESS ESTATE, JACARANDA AVENUE, OLIVEDALE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MEADOWBROOK BUSINESS ESTATE, JACARANDA AVENUE, OLIVEDALE</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MEADOWBROOK BUSINESS ESTATE, JACARANDA AVENUE, OLIVEDALE</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0027114626776</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0114626776</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>WWW.ANATECH.CO.ZA</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>7502126349180</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>ABSA Bank</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>198200634807</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3115998500000S</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>IMPRIMERIE PAPETERIE NOUVELLE (I.P.N)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>IMPRIMERIE PAPETERIE NOUVELLE (I.P.N)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Avenue du poids lourd kigali-Rwanda</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Avenue du poids lourd kigali-Rwanda</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Avenue du poids lourd kigali-Rwanda</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>duplicator10@gmail.com</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0785177044</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>www.duplicator.rw</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>1198480003655221</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0788300334</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1195780001538062</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>RWANDA</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Bank of Africa Rwanda</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>102062874</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>3102619000000X</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LA PREFERENCE BUSINESS COMPANY (PBC) Ltd</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>LA PREFERENCE BUSINESS COMPANY (PBC) Ltd</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>KIGALI VILLE</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>KIGALI VILLE</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>KIGALI VILLE</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>lapreferencepbc@gmail.com</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0788853157</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>1198080004260142</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>BK</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>101843979</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Haskoning DHV Nederland B.V.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Haskoning DHV Nederland B.V.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Laan 1914 no. 35, 3818EX, Amersfoort</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Laan 1914 no. 35, 3818EX, Amersfoort</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Laan 1914 no. 35, 3818EX, Amersfoort</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>tjeerd.driessen@rhdhv.com</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0031883488603</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>www.royalhaskoningdhv.com</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>ABN Amro</t>
-        </is>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>852164087</t>
+          <t>100040213</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3130652000000W</t>
+          <t>3106265200000M</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BWIZA GLOBAL Ltd</t>
+          <t>LASER SOLUTION  LTD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3809,22 +3824,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BWIZA GLOBAL Ltd</t>
+          <t>LASER SOLUTION  LTD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>kigali-rwanda</t>
+          <t>Kabasengerezi :</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>kigali-rwanda</t>
+          <t>Kabasengerezi :</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>kigali-rwanda</t>
+          <t>Kabasengerezi :</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>5340 KIGALI- RWANDA</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3834,17 +3854,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>faustinshingiro@gmail.com</t>
+          <t>lasersolution30@gmail.com</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0788516896</t>
+          <t>0788309426</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1198280021423045</t>
+          <t>1198680158114052</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3854,19 +3874,19 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>121633056</t>
+          <t>102969301</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pegasys Limited</t>
+          <t>Pharmacare Limited t/a Aspen Pharmacare</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3876,74 +3896,74 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pegasys Limited</t>
+          <t>Pharmacare Limited t/a Aspen Pharmacare</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tower Bridge House, St Katharines Way</t>
+          <t>Healthcare Park, Woodlands Drive, Woodmead, Sandton</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tower Bridge House, St Katharines Way</t>
+          <t>Healthcare Park, Woodlands Drive, Woodmead, Sandton</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tower Bridge House, St Katharines Way</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>E1W 1DD</t>
+          <t>Healthcare Park, Woodlands Drive, Woodmead, Sandton</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>tenders@pegasys.co.za</t>
+          <t>EKARIUKI@ASPENPHARMA.COM</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0713817564</t>
+          <t>27112396026</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>www.aspenpharma.com</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>8405030163086</t>
+          <t>C028027</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>KENYAN</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Barclays Bank</t>
+          <t>STANDARD BANK OF S A LIMITED</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10333897</t>
+          <t>189800025206</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3131595300000V</t>
+          <t>3111594500000Y</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7KEYZ Ltd</t>
+          <t>APEX MEDIA &amp; PROMOTIONS  LTD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3953,22 +3973,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7KEYZ Ltd</t>
+          <t>APEX MEDIA &amp; PROMOTIONS  LTD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>Rugando :</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>Rugando :</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>Rugando :</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3978,17 +3998,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7keyzltd@gmail.com</t>
+          <t>djcopio@hotmail.com</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>788489279</t>
+          <t>786896974</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1198080013143139</t>
+          <t>1197780105357103</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3998,24 +4018,19 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>121821334</t>
+          <t>103762183</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>3103332300000W</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COCOFPA  LTD</t>
+          <t>AIC Progetti SpA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4025,69 +4040,84 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>COCOFPA  LTD</t>
+          <t>AIC Progetti SpA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NYAMAGABE</t>
+          <t>VIA DELLA CAMILLUCCIA 589/C</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NYAMAGABE</t>
+          <t>VIA DELLA CAMILLUCCIA 589/C</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NYAMAGABE</t>
+          <t>VIA DELLA CAMILLUCCIA 589/C</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>00135 ROME</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>cocofpa@gmail.com</t>
+          <t>aicprogetti@aicprogetti.it</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0788446324</t>
+          <t>00390636301501</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0039063297330</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>www.aicprogetti.it</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>118380041531111</t>
+          <t>AA2031850</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>RWANDAN</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BANCA POPOLARE DI SONDRIO AGENZIA 15</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>102212673</t>
+          <t>00754160588</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3121846000000G</t>
+          <t>3103996500000Q</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>POWER MOVES Ltd</t>
+          <t>GENIUS GROUP  LTD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4097,22 +4127,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>POWER MOVES Ltd</t>
+          <t>GENIUS GROUP  LTD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KIGALI, NYARUGENGE</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>KIGALI, NYARUGENGE</t>
+          <t>NYARUGENGE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KIGALI, NYARUGENGE</t>
+          <t>NYARUGENGE</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>5565 KIGALI</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4122,17 +4157,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>pmovesltd@gmail.com</t>
+          <t>bayizaseth@gmail.com</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0788282506</t>
+          <t>788752390</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1199280101464090</t>
+          <t>1198080005858088</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4142,24 +4177,24 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMMERCIAL BANK OF AFRICA (RWANDA) PLC </t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>119255496</t>
+          <t>102454942</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3105782400000S</t>
+          <t>3109732700000D</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EQUILIBRIA Ltd</t>
+          <t>AMPURIRE MULTI CREATIVE COMPANY  LTD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4169,22 +4204,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EQUILIBRIA Ltd</t>
+          <t>AMPURIRE MULTI CREATIVE COMPANY  LTD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Kabeza :</t>
+          <t>GASABO/JABANA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kabeza :</t>
+          <t>GASABO/JABANA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Kabeza :</t>
+          <t>GASABO/JABANA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4194,22 +4229,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>aime.tsinda@gmail.com</t>
+          <t>eplannet@yahoo.fr</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>788305960</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>www.equilibria.rw</t>
+          <t>0788924048</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1197780110847015</t>
+          <t>1199170004051074</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4219,24 +4249,24 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ACCESS BANK</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>102886912</t>
+          <t>103517025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3108949000000J</t>
+          <t>3102379900000Y</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENERGY  UTILITY  CORPORATION (EUCL) Ltd</t>
+          <t>MEDISYST Ltd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4246,27 +4276,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ENERGY  UTILITY  CORPORATION (EUCL) Ltd</t>
+          <t>MEDISYST Ltd</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>NYARUGUNGA /KICUKIRO</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>NYARUGUNGA /KICUKIRO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NYARUGENGE</t>
+          <t>NYARUGUNGA /KICUKIRO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">5634 Kigali </t>
+          <t>2747 KIGALI</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4276,22 +4306,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>info@reg.rw</t>
+          <t>orurangwa@medisyst.rw</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0799373402</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>www.eucl.reg.rw</t>
+          <t>788503713</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>119818000546604</t>
+          <t>1195780002268049</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4301,24 +4326,24 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>103372638</t>
+          <t>102050917</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3114640100000T</t>
+          <t>3101798200000K</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SNN GENERAL SUPPLY Ltd</t>
+          <t>SOSOMA INDUSTRIES  LTD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4328,22 +4353,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SNN GENERAL SUPPLY Ltd</t>
+          <t>SOSOMA INDUSTRIES  LTD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>NIBOYI-KICUKIRO-KIGALI CITY</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>NIBOYI-KICUKIRO-KIGALI CITY</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>GASABO</t>
+          <t>NIBOYI-KICUKIRO-KIGALI CITY</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4353,17 +4378,22 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>sebubos@yahoo.fr</t>
+          <t>sosoma@sosoma.rw</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0788538378</t>
+          <t>0788440182</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>www.sosoma.rw</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1196080002525206</t>
+          <t>1197580029544006</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4373,24 +4403,24 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>107362114</t>
+          <t>101767471</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3103926500000V</t>
+          <t>3103939100000P</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E.G.H.I/GRAND LEGACY HOTEL  LTD</t>
+          <t>AIRTEL RWANDA Ltd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4400,27 +4430,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>E.G.H.I/GRAND LEGACY HOTEL  LTD</t>
+          <t>AIRTEL RWANDA Ltd</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RUKIRI1</t>
+          <t>NYABISINDU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RUKIRI1</t>
+          <t>NYABISINDU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>RUKIRI1</t>
+          <t>NYABISINDU</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>4164 Kigali</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4430,49 +4460,49 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>gm@grandlegacy.rw</t>
+          <t>emmanuel.hamez@rw.airtel.com</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0732150409</t>
+          <t>0731000096</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>www.grandlegacy.rw</t>
+          <t>www.airtel.com</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1198880016310036</t>
+          <t>20DH25860</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>french</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ACCESS BANK</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>102433512</t>
+          <t>102437818</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3115301100000N</t>
+          <t>3103144200000Y</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MJ&amp;ASSOCIATES REAL ESTATE COMPANY Ltd</t>
+          <t>CHINA STAR CONSTRUCTION (RWANDA) CO Ltd</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4482,22 +4512,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MJ&amp;ASSOCIATES REAL ESTATE COMPANY Ltd</t>
+          <t>CHINA STAR CONSTRUCTION (RWANDA) CO Ltd</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kacyiru, Gasabo</t>
+          <t>B1 Plot, Prime Economic Zones, Masoro, GASABO, kIGALI</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kacyiru, Gasabo</t>
+          <t>B1 Plot, Prime Economic Zones, Masoro, GASABO, kIGALI</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Kacyiru, Gasabo</t>
+          <t>B1 Plot, Prime Economic Zones, Masoro, GASABO, kIGALI</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1592</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4507,44 +4542,49 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>jmugisha85@gmail.com</t>
+          <t>chinastarrwanda@gmail.com</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0788598990</t>
+          <t>788319086</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>www.zcgg.net</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1198580183926054</t>
+          <t>G31020230</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>106742094</t>
+          <t>102185931</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3121997200000V</t>
+          <t>3101138600000Y</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>G-IMPETA COMPANY Ltd</t>
+          <t>DOVE FREIGHT AGENCY  LTD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4554,22 +4594,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>G-IMPETA COMPANY Ltd</t>
+          <t>DOVE FREIGHT AGENCY  LTD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rwezamenyo, Nyarugenge, Kigali</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rwezamenyo, Nyarugenge, Kigali</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Rwezamenyo, Nyarugenge, Kigali</t>
+          <t>KIGALI</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4194</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4579,17 +4624,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>turaimable@gmail.com</t>
+          <t>dovefreight@yahoo.fr</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0787898678</t>
+          <t>0788306224</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1199680011288015</t>
+          <t>1196970001031186</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4599,24 +4644,24 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>UNGUKA BANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>119263947</t>
+          <t>100136846</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3110199100000A</t>
+          <t>3101878000000K</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SINA GERARD PETROLEUM (SIGEPE) Ltd</t>
+          <t>TIGO  RWANDA Ltd</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4626,27 +4671,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SINA GERARD PETROLEUM (SIGEPE) Ltd</t>
+          <t>TIGO  RWANDA Ltd</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>nyirangarama :</t>
+          <t>KN 1 Road, Plot 6124, Muhima</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>nyirangarama :</t>
+          <t>KN 1 Road, Plot 6124, Muhima</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>nyirangarama :</t>
+          <t>KN 1 Road, Plot 6124, Muhima</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3652 KIGALI</t>
+          <t>6124</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4656,49 +4701,49 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ceo@sinarwanda.com</t>
+          <t>Philip.amoateng@tigo.co.rw</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>788305111</t>
+          <t>0722123128</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>www.sinarwanda.com</t>
+          <t>www.tigo.co.rw</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1196380046911063</t>
+          <t>G0446527</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ACCESS BANK</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>103582274</t>
+          <t>101775989</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3115016400000S</t>
+          <t>3100790600000E</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN MOBILITY SOLUTIONS RWANDA Ltd</t>
+          <t>ECOBANK RWANDA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4708,27 +4753,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN MOBILITY SOLUTIONS RWANDA Ltd</t>
+          <t>ECOBANK RWANDA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Special Econmic Zone, Kigali</t>
+          <t>KN3 AV4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Special Econmic Zone, Kigali</t>
+          <t>KN3 AV4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Special Econmic Zone, Kigali</t>
+          <t>KN3 AV4</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>3236 KIGALI RWANDA</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4738,22 +4783,27 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>serge.kamuhinda@vw.rw</t>
+          <t>ompenzi@ecobank.com</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0789923555</t>
+          <t>0788161000</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>250252501319</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>www.ecobank.com</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1198180143673022</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>RWANDAN</t>
+          <t>1198280012195067</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4763,19 +4813,14 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>107658159</t>
+          <t>100003637</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>3121477000000M</t>
-        </is>
-      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DEEP SWITCH Ltd</t>
+          <t>NKURIKIYIMANA EMMANUEL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4785,22 +4830,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DEEP SWITCH Ltd</t>
+          <t>NKURIKIYIMANA EMMANUEL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>kigali-Rwanda</t>
+          <t>KICUKIRO DISTRICT</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>kigali-Rwanda</t>
+          <t>KICUKIRO DISTRICT</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>kigali-Rwanda</t>
+          <t>KICUKIRO DISTRICT</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4810,17 +4855,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>damienbi607@gmail.com</t>
+          <t>nkuremmy@yahoo.fr</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>788560582</t>
+          <t>0788450847</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1199080189195118</t>
+          <t>1197580008413094</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4830,24 +4875,19 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>113258053</t>
+          <t>101506035</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>3121911000000E</t>
-        </is>
-      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RWABUYE RICE Ltd</t>
+          <t>UWAMARIYA THERESE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4857,22 +4897,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RWABUYE RICE Ltd</t>
+          <t>UWAMARIYA THERESE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>South Province</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>South Province</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>South Province</t>
+          <t>KIGALI</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2242 </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4882,44 +4927,44 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ggakwaya1@gmail.com</t>
+          <t>utcpa.ltd@gmail.com</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>788583183</t>
+          <t>0788303980</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1198380174010052</t>
+          <t>1196970002828109</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>RWANDESE</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>119155108</t>
+          <t>100912112</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3116172000000B</t>
+          <t>3109241300000Q</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GORILLA STAR Limited</t>
+          <t>SKYNET WORLDWIDE EXPRESS  LTD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4929,27 +4974,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GORILLA STAR Limited</t>
+          <t>SKYNET WORLDWIDE EXPRESS  LTD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>D1, Kigali Special Economic Zonne, Village Akakeza, Cell Kinyaga, Sector Bumbogo, District Gasabo, Kigali, Rwanda</t>
+          <t>kacyiru-GASABO</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>D1, Kigali Special Economic Zonne, Village Akakeza, Cell Kinyaga, Sector Bumbogo, District Gasabo, Kigali, Rwanda</t>
+          <t>kacyiru-GASABO</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>D1, Kigali Special Economic Zonne, Village Akakeza, Cell Kinyaga, Sector Bumbogo, District Gasabo, Kigali, Rwanda</t>
+          <t>kacyiru-GASABO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4959,49 +5004,39 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>apatilsingh@gmail.com</t>
+          <t>skynetkgl@gmail.com</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>738307833</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>www.gorillastarrw.com</t>
+          <t>0788303920</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>H9398120</t>
+          <t>1197080005245009</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>ECOBANK</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>108354279</t>
+          <t>103434112</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>3112800800000F</t>
-        </is>
-      </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SMART BROADBAND Ltd</t>
+          <t>STUP Consultants Pvt Ltd</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5011,79 +5046,79 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SMART BROADBAND Ltd</t>
+          <t>STUP Consultants Pvt Ltd</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nyarugenge, Nyarugenge</t>
+          <t>1004-5-6, 213, Raheja Chambers, Free Press Journal Marg,  Nariman Point, Mumbai - 400 021,</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nyarugenge, Nyarugenge</t>
+          <t>1004-5-6, 213, Raheja Chambers, Free Press Journal Marg,  Nariman Point, Mumbai - 400 021,</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Nyarugenge, Nyarugenge</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>734</t>
+          <t>1004-5-6, 213, Raheja Chambers, Free Press Journal Marg,  Nariman Point, Mumbai - 400 021,</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>India</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>sales@sbbsolution.com</t>
+          <t>sunil.dutt@stupmail.com</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0781022330</t>
+          <t>912240887777</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>22048424</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>www.sbbsolution.com</t>
+          <t>www.stupco.com</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1199280084438080</t>
+          <t>Z3331156</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>STATE BANK OF INDIA</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>105591922</t>
+          <t>AABCS1945E</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3135600900000Y</t>
+          <t>3107109700000W</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INDOTO TRADING Ltd</t>
+          <t>HWCO  LTD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5093,22 +5128,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>INDOTO TRADING Ltd</t>
+          <t>HWCO  LTD</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KIMIRONKO GASABO</t>
+          <t>Kimisagara :</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>KIMIRONKO GASABO</t>
+          <t>Kimisagara :</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KIMIRONKO GASABO</t>
+          <t>Kimisagara :</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5118,17 +5153,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ntezelie22@gmail.com</t>
+          <t>hwcoltd01@gmail.com</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>788556925</t>
+          <t>0788280498</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1198580008682097</t>
+          <t>1198680177615076</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5138,24 +5173,19 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>DUTERIMBERE IMF</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>121633472</t>
+          <t>103106915</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>3125703400000E</t>
-        </is>
-      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DIMEC INVESTMENTS Ltd</t>
+          <t>MPAKANIYE LAZARD BLAISE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5165,22 +5195,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DIMEC INVESTMENTS Ltd</t>
+          <t>MPAKANIYE LAZARD BLAISE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kigali</t>
+          <t>GASABO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kigali</t>
+          <t>GASABO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Kigali</t>
+          <t>GASABO</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5190,17 +5220,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ishemasupply.generalservices@gmail.com</t>
+          <t>laco2020@gmail.com</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>788354173</t>
+          <t>0788786456</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1199880066078044</t>
+          <t>119580171756069</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5210,24 +5240,19 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>119850982</t>
+          <t>106418973</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>3102503800000J</t>
-        </is>
-      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GOOD-FRIENDS PAPETERIE  LTD</t>
+          <t>Dereck Rusagara</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5237,27 +5262,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>GOOD-FRIENDS PAPETERIE  LTD</t>
+          <t>Dereck Rusagara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rugenge :</t>
+          <t>#6, KK 41 Avenue</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rugenge :</t>
+          <t>#6, KK 41 Avenue</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rugenge :</t>
+          <t>#6, KK 41 Avenue</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>6284, Kigali, Rwanda</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5267,44 +5292,44 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>goodfriendspapeterieltd@gmail.com</t>
+          <t>drusagara@gmail.com</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0788509852</t>
+          <t>0788837771</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1198480000356185</t>
+          <t>1197480096871220</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Rwandan</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>BPR</t>
+          <t>EQUITY BANK</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>102104399</t>
+          <t>101404268</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3130893700000B</t>
+          <t>3100792300000T</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GAHIMA INVESTMENT COMPANY Ltd</t>
+          <t>HYGEBAT  LTD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5314,22 +5339,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>GAHIMA INVESTMENT COMPANY Ltd</t>
+          <t>HYGEBAT  LTD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>musanze</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>musanze</t>
+          <t>KIGALI</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>musanze</t>
+          <t>KIGALI</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2739</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5339,17 +5369,22 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>musonifrancois1@gmail.com</t>
+          <t>mugabotheobald@gmail.com</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>788299335</t>
+          <t>0788301009</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>www.hygebat.net</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1199280091467164</t>
+          <t>119618000207437</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5359,24 +5394,24 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>121897742</t>
+          <t>100060263</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3101147500000N</t>
+          <t>3100919200000X</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HOTEL  SAINT- ANDRE KABGAYI Ltd</t>
+          <t>E.G.C</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5386,27 +5421,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HOTEL  SAINT- ANDRE KABGAYI Ltd</t>
+          <t>E.G.C</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GAHOGO :</t>
+          <t>KK175st, REMERA, District of GASABO, KIGALI CITY</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>GAHOGO :</t>
+          <t>KK175st, REMERA, District of GASABO, KIGALI CITY</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>GAHOGO :</t>
+          <t>KK175st, REMERA, District of GASABO, KIGALI CITY</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5416,22 +5451,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>niyonagiraprosper@gmail.com</t>
+          <t>nsengumuremyi@yahoo.fr</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0788866927</t>
+          <t>0788303276</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>www.saintandrekabgayi.com</t>
+          <t>egcconstruction.co</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1197780020245006</t>
+          <t>1196280074808093</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5441,24 +5476,19 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>EQUITY BANK</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>101611174</t>
+          <t>100057080</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3133821700000D</t>
-        </is>
-      </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>UBUDASA WALL PAINTS Ltd</t>
+          <t>VINOD KUMAR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5468,7 +5498,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>UBUDASA WALL PAINTS Ltd</t>
+          <t>VINOD KUMAR</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5493,44 +5523,44 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ubudasawallpaints2023@gmail.com</t>
+          <t>VINODSHARMA0202@GMAIL.COM</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>788562850</t>
+          <t>0725160856</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1198970132408134</t>
+          <t>N5632841</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>FINA BANK</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>118953174</t>
+          <t>N5632841</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3115399100000H</t>
+          <t>3103842500000X</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IBIGABIRO HOTEL Ltd</t>
+          <t>POSITIVE THINKING  LTD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5540,22 +5570,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>IBIGABIRO HOTEL Ltd</t>
+          <t>POSITIVE THINKING  LTD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>KAGANO/NYAMASHEKE</t>
+          <t>Kigali</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5565,17 +5595,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>judith.uwankwera@yahoo.com</t>
+          <t>nkubana12@gmail.com</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>788777282</t>
+          <t>0788522412</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1196970030416098</t>
+          <t>1197480005372081</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5590,19 +5620,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>107931976</t>
+          <t>102409734</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3114936900000T</t>
+          <t>3101673100000V</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SPEAR MOTORS AND SOUND Ltd</t>
+          <t>GASABO 3D DESIGN  LTD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5612,27 +5642,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SPEAR MOTORS AND SOUND Ltd</t>
+          <t>GASABO 3D DESIGN  LTD</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>REMERA INTERNATIONAL AIRPORT BOULEVARD NEAR THE MIRROR HOTEL</t>
+          <t>Blue Star House, 3rd Floor , 35 KG 7 Ave, Kigali, Kacyiru</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>REMERA INTERNATIONAL AIRPORT BOULEVARD NEAR THE MIRROR HOTEL</t>
+          <t>Blue Star House, 3rd Floor , 35 KG 7 Ave, Kigali, Kacyiru</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>REMERA INTERNATIONAL AIRPORT BOULEVARD NEAR THE MIRROR HOTEL</t>
+          <t>Blue Star House, 3rd Floor , 35 KG 7 Ave, Kigali, Kacyiru</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1180 Kigali Rwanda</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5642,22 +5672,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>spearmotorssoundltd@gmail.com</t>
+          <t>gentil.kangaho@gasabo3d.rw</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>788300759</t>
+          <t>0788304297</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>www.spearmotors.co.rw</t>
+          <t>www.gasabo3d.rw</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1196280002637075</t>
+          <t>1197780012656026</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5667,322 +5697,297 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>101666438</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Circ MedTech Limited</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Circ MedTech Limited</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Horizon Chambers P.O.Box 4622 Road Town, Tortola, British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Horizon Chambers P.O.Box 4622 Road Town, Tortola, British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Horizon Chambers P.O.Box 4622 Road Town, Tortola, British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Virgin Islands, British</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>97297721513</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>13064065</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Bank Leumi (UK) plc</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1543895</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Bureau Veritas Kenya Limited</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Bureau Veritas Kenya Limited</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ABC Place,Westlands, Waiyaki Way, Nairobi</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ABC Place,Westlands, Waiyaki Way, Nairobi</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ABC Place,Westlands, Waiyaki Way, Nairobi</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>34378</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0204450560</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>www.bureauveritas.com</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>23534259</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Kenyan</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>CFC Stanbic Bank</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>P051105081U</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3101061400000R</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECOMEM CO.  LTD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ECOMEM CO.  LTD</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Gisozi-Gasabo/ADARWA complex building</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Gisozi-Gasabo/ADARWA complex building</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Gisozi-Gasabo/ADARWA complex building</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>5424 Kigali</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>byumvuhorefabien69@gmail.com</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0788743023</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1196980053057027</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>ECOBANK</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>101902799</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Muhorakeye Providence</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Muhorakeye Providence</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>KIGALI, RWANDA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>KIGALI, RWANDA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>KIGALI, RWANDA</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>provymuhor@gmail.com</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0781575353</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1198070010871188</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>RWANDAN</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
           <t>EQUITY BANK</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>107588959</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>3120700200000S</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CORE ENGINEERING AND ENVIRONMENTAL PROTECTION Ltd</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>CORE ENGINEERING AND ENVIRONMENTAL PROTECTION Ltd</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>musanze</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>musanze</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>musanze</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>cocepltdc2020@gmail.com</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>787494952</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>1199270041750099</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>EQUITY BANK</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>111877643</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>3111211400000Y</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PENTER  LTD</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PENTER  LTD</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>HUYE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>HUYE</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>HUYE</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>677 HUYE</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>hatis08@gmail.com</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0788222656</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>1198480188911086</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>103721146</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Bantu Studio Design and Research</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Bantu Studio Design and Research</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>48 Auckland Avenue, Auckland Park, Johannesburg 2092, South Africa</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>48 Auckland Avenue, Auckland Park, Johannesburg 2092, South Africa</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>48 Auckland Avenue, Auckland Park, Johannesburg 2092, South Africa</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2092</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>garret.gantner@gmail.com</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>27749903301</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>545681794</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>FNB</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>201425330007</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>3122485700000T</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MORIAH CONSULT Ltd</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>MORIAH CONSULT Ltd</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Kimironko, Gasabo, Kigali City, Rwanda</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kimironko, Gasabo, Kigali City, Rwanda</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Kimironko, Gasabo, Kigali City, Rwanda</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>esibomana1@gmail.com</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>0788813624</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>1197880064780087</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>BPR</t>
-        </is>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>120121144</t>
+          <t>102964998</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3121495600000M</t>
+          <t>3107485600000A</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASI-ENERGY Ltd</t>
+          <t>SEVEN SOLUTIONS (SESO) Ltd</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5992,22 +5997,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ASI-ENERGY Ltd</t>
+          <t>SEVEN SOLUTIONS (SESO) Ltd</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gasabo</t>
+          <t>Kicukiro</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Gasabo</t>
+          <t>Kicukiro</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Gasabo</t>
+          <t>Kicukiro</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6017,17 +6022,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>lydieu@gmail.com</t>
+          <t>hubecy2020@gmail.com</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>788312416</t>
+          <t>788617202</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1198070163665001</t>
+          <t>1197680011232061</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6037,24 +6042,24 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>BPR</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>108264769</t>
+          <t>103147503</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3131900300000V</t>
+          <t>3103435600000A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KALIBUNI FOODS SUPPLY CO Ltd</t>
+          <t>INNOVA DEVELOPMENT COMPANY Ltd</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6064,22 +6069,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>KALIBUNI FOODS SUPPLY CO Ltd</t>
+          <t>INNOVA DEVELOPMENT COMPANY Ltd</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Muhoza, Musanze, Amajyaruguru, RWANDA</t>
+          <t>Rwezamenyo :</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Muhoza, Musanze, Amajyaruguru, RWANDA</t>
+          <t>Rwezamenyo :</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Muhoza, Musanze, Amajyaruguru, RWANDA</t>
+          <t>Rwezamenyo :</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>250</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6089,17 +6099,27 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>marcus@gmail.com</t>
+          <t>mcphilly01@gmail.com</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>789640858</t>
+          <t>788439026</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>+250788439026</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>www.innovadcevent.com</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1199970027711057</t>
+          <t>1198480048535184</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6109,24 +6129,24 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>119470412</t>
+          <t>102082466</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3107109700000W</t>
+          <t>3108880400000W</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HWCO  LTD</t>
+          <t>FAMILY GROWTH COMPANY  LTD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6136,22 +6156,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HWCO  LTD</t>
+          <t>FAMILY GROWTH COMPANY  LTD</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kimisagara :</t>
+          <t>Mpenge :</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kimisagara :</t>
+          <t>Mpenge :</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Kimisagara :</t>
+          <t>Mpenge :</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6161,17 +6181,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>hwcoltd01@gmail.com</t>
+          <t>ivan.livin@yahoo.fr</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0788280498</t>
+          <t>784549301</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1198680177615076</t>
+          <t>1198780111327252</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6181,24 +6201,24 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>103106915</t>
+          <t>103358218</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3103568500000P</t>
+          <t>3105702500000Z</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HIRWA SUPPLY &amp; CONSULTANCY COMPANY  LTD</t>
+          <t>PERTINENT BUSINESS IMPLEMENTATORS AFRICA LTD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6208,27 +6228,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HIRWA SUPPLY &amp; CONSULTANCY COMPANY  LTD</t>
+          <t>PERTINENT BUSINESS IMPLEMENTATORS AFRICA LTD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MUSANZE</t>
+          <t>KIMIRONKO-GASABO</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MUSANZE</t>
+          <t>KIMIRONKO-GASABO</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MUSANZE</t>
+          <t>KIMIRONKO-GASABO</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>149 MUSANZE</t>
+          <t>1034 KIGALI-RWANDA</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6238,121 +6258,111 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>hirwpl04@gmail.com</t>
+          <t>habimanajoseph16@gmail.com</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0788842625</t>
+          <t>0788607221</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1197270096326014</t>
+          <t>1196780002803016</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
+          <t>RWANDAN</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>EQUITY BANK</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>102870643</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GEM FORGINGS PVT LTD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GEM FORGINGS PVT LTD</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10/C Middleton Row, 3rd Floor, Kolkata-700071, India</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10/C Middleton Row, 3rd Floor, Kolkata-700071, India</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10/C Middleton Row, 3rd Floor, Kolkata-700071, India</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>export@gemforgings.com</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0788211769</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1198580175360039</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>RWANDA</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>102334090</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>3132395400000X</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TRUST  WORD Ltd</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>TRUST  WORD Ltd</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Kigali-Rwanda</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kigali-Rwanda</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Kigali-Rwanda</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>hitrustword@gmail.com</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>788305649</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>1198480004915226</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>YES BANK LTD,  Bank Branch Address: RUSSELL STREET, KOLKATA- 700071, INDIA</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>120558081</t>
+          <t>19500368035</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3119250800000L</t>
+          <t>3101131400000C</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOMON Ltd</t>
+          <t>SUN ENTERPRISES  LTD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6362,22 +6372,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ECOMON Ltd</t>
+          <t>SUN ENTERPRISES  LTD</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>KIGALI  CITY MARKET</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>KIGALI  CITY MARKET</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>KIGALI</t>
+          <t>KIGALI  CITY MARKET</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>933</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6387,653 +6402,32 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ingabirenancy20@gmail.com</t>
+          <t>sun_enp@yahoo.com</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0788681146</t>
+          <t>788308788</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1199570151953192</t>
+          <t>3196880084532113</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>GT Bank</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>111516768</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>3101103600000Q</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SOCIETE PETROLIERE  LTD</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>SOCIETE PETROLIERE  LTD</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Kinunga :</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kinunga :</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Kinunga :</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>144 KIGALI - RWANDA</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>chabimana@sp.co.rw</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>0788306233</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>16FV05088</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>FRENCH</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>100222174</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>3115809500000L</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>G&amp;B HOREB Ltd</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>G&amp;B HOREB Ltd</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>KIGALI-KICUKIRO, SANGWA PLAZA, OFFICE No: 2, OPPOSITE IPRC-KIGALI</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>KIGALI-KICUKIRO, SANGWA PLAZA, OFFICE No: 2, OPPOSITE IPRC-KIGALI</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>KIGALI-KICUKIRO, SANGWA PLAZA, OFFICE No: 2, OPPOSITE IPRC-KIGALI</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PO. BOX: 5953 </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bizjustin0@gmail.com</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>788646628</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>1198480016507055</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>BPR</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>108405209</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>3102114500000A</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>IGIHE  LTD</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>IGIHE  LTD</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>KN 82 ST NYARUGENGE</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>KN 82 ST NYARUGENGE</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>KN 82 ST NYARUGENGE</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>meilleur@igihe.org</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>0788742908</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>igihe.org</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>1198480201141072</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>101934541</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>3114281600000Z</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PHILOS MC Ltd</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PHILOS MC Ltd</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Nyarugenge-Nyarugenge, Kigali City</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Nyarugenge-Nyarugenge, Kigali City</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Nyarugenge-Nyarugenge, Kigali City</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>tphilos2020@gmail.com</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>788827582</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>www.philosmcltd.com</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>1198780173945128</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>UNGUKA BANK</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>106780328</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>3118994000000G</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>YOU &amp; I DIMACO COMPANY Limited</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>YOU &amp; I DIMACO COMPANY Limited</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Rusizi /Kamembe</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Rusizi /Kamembe</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Rusizi /Kamembe</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>marcmusabirema45@gmail.com</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>788210434</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>1198680068322129</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>111453308</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>3115733400000W</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GARAGE ABIZERWA CO. Ltd</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GARAGE ABIZERWA CO. Ltd</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Kayonza</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kayonza</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Kayonza</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>33 Rwamagana</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>gabizerwa2018@gmail.com</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>0788304281</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>1196680053770032</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>108308350</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3102534400000B</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>APEFA asbl</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>APEFA asbl</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Gasabo</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Gasabo</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Gasabo</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>4887</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>nzabonimpa069@gmail.com</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>0788305735</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>www.apefarwanda.org</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>1196980034341178</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Rwandese</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>EQUITY BANK</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>102091996</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>3103916300000W</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>PRINTFAST (R) Ltd</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>TIN</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PRINTFAST (R) Ltd</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Opp. Magerwa, Expo Ground, Gikondo, Kigali</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>8418</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>vijay@printfast.co.rw</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>0788552438</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>3197480106241107</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>INDIAN</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>I&amp;M Bank</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>102431039</t>
+          <t>100273851</t>
         </is>
       </c>
     </row>
